--- a/stripped/S10025.mes.bin.xlsx
+++ b/stripped/S10025.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15E5592-94E3-4ACB-ADB8-E5380E306834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E622CB-F607-4503-8748-28616482137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10025.mes.bin" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>Yuki</t>
   </si>
   <si>
-    <t>^Here I am, Ogata-san-san! Thanks for all your help today!^</t>
+    <t>^Here I am, Ogata-san! Thanks for all your help today!^</t>
   </si>
   <si>
     <t>155</t>

--- a/stripped/S10025.mes.bin.xlsx
+++ b/stripped/S10025.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E622CB-F607-4503-8748-28616482137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3780C5DF-0EFA-45A6-9145-E774D7397BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10025.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="124">
   <si>
     <t>Status</t>
   </si>
@@ -128,6 +128,9 @@
     <t>Touya &amp; Yuki &amp; Rina</t>
   </si>
   <si>
+    <t>^Is that you, Fujii-kun? Are you working crowd control?^</t>
+  </si>
+  <si>
     <t>59</t>
   </si>
   <si>
@@ -275,10 +278,13 @@
     <t>143</t>
   </si>
   <si>
+    <t>We bump into various other (actual) crew members along our\nway, but no one dares to question what I'm doing back here\nsince I'm with Eiji-san.</t>
+  </si>
+  <si>
     <t>145</t>
   </si>
   <si>
-    <t>^Nice work today! It's me, Eiji-san. Is there a girl named Yuki-chan\nin there?^</t>
+    <t>^Nice work today! It's me, Ogata. Is there a girl named Yuki-chan\nin there?^</t>
   </si>
   <si>
     <t>147</t>
@@ -793,7 +799,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1233,7 +1241,9 @@
         <v>36</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1242,7 +1252,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1256,7 +1266,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1270,7 +1280,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1284,11 +1294,11 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1300,7 +1310,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1314,7 +1324,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1328,7 +1338,7 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1342,13 +1352,13 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1358,11 +1368,11 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1374,7 +1384,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1388,7 +1398,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1402,7 +1412,7 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1416,7 +1426,7 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1430,7 +1440,7 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1444,7 +1454,7 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1458,7 +1468,7 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1472,11 +1482,11 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1488,7 +1498,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
@@ -1504,11 +1514,11 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1520,11 +1530,11 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1536,7 +1546,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1550,13 +1560,13 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -1566,11 +1576,11 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1582,11 +1592,11 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -1598,7 +1608,7 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1612,7 +1622,7 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1626,15 +1636,15 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -1644,11 +1654,11 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1660,7 +1670,7 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1674,7 +1684,7 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1688,15 +1698,15 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -1706,11 +1716,11 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1722,7 +1732,7 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1736,7 +1746,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1750,7 +1760,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1764,7 +1774,7 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -1778,7 +1788,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1792,11 +1802,11 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -1808,7 +1818,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1822,11 +1832,11 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -1838,11 +1848,11 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -1854,7 +1864,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -1868,12 +1878,14 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -1882,15 +1894,15 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -1900,7 +1912,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -1914,11 +1926,11 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -1930,7 +1942,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -1944,15 +1956,15 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -1962,11 +1974,11 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -1978,7 +1990,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -1992,13 +2004,13 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -2008,15 +2020,15 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -2026,13 +2038,13 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -2042,11 +2054,11 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -2058,11 +2070,11 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -2074,13 +2086,13 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -2090,7 +2102,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2104,11 +2116,11 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -2120,7 +2132,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2134,7 +2146,7 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2148,11 +2160,11 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -2164,11 +2176,11 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -2180,13 +2192,13 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -2196,13 +2208,13 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -2212,11 +2224,11 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -2228,11 +2240,11 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -2244,11 +2256,11 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -2260,7 +2272,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
